--- a/Industrials/Booz Allen Hamilton.xlsx
+++ b/Industrials/Booz Allen Hamilton.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC32C794-DDCD-FF49-B8D6-468E1D82CE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F292A70D-6C93-F54A-BB6B-EB7132A20ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1381,7 +1381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1473,12 +1473,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="13" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="12" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1502,12 +1496,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1671,17 +1659,14 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="10" fontId="20" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1699,6 +1684,24 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="12" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1737,6 +1740,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1754,7 +1758,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6280000000000002E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1766,6 +1770,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1920,11 +1925,11 @@
     <v>Powered by Refinitiv</v>
     <v>130.34</v>
     <v>87.99</v>
-    <v>0.6099</v>
-    <v>1.34</v>
-    <v>1.0634999999999999E-2</v>
-    <v>-1.32</v>
-    <v>-1.0366E-2</v>
+    <v>0.54990000000000006</v>
+    <v>3.03</v>
+    <v>2.4215E-2</v>
+    <v>0.51</v>
+    <v>3.9789999999999999E-3</v>
     <v>USD</v>
     <v>Booz Allen Hamilton Holding Corporation is a holding company. The Company provides management and technology consulting, analytics, engineering, digital solutions, mission operations, and cyber services to United States (US) and international governments, major corporations, and not-for-profit organizations. Its analytics service offering focuses on providing solutions the areas of artificial intelligence (AI), such as machine learning (ML), deep learning, data science, such as data engineering and predictive modeling, automation and decision analytics, and emerging areas, such as quantum computing. Its consulting service offering focuses on the talent and expertise needed to solve client problems and develop mission-oriented solutions for specific domains, business strategies, human capital, and operations through new approaches. Its engineering solutions deliver engineering services and solutions to define, develop, implement, sustain, and modernize complex physical systems.</v>
     <v>33100</v>
@@ -1932,26 +1937,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>8283 Greensboro Dr, MCLEAN, VA, 22102 US</v>
-    <v>128.57</v>
+    <v>128.22</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45244.000000010936</v>
+    <v>45261.946478796097</v>
     <v>4</v>
-    <v>125.91500000000001</v>
-    <v>16602742008</v>
+    <v>124.55</v>
+    <v>16709650000</v>
     <v>BOOZ ALLEN HAMILTON HOLDING CORPORATION</v>
     <v>BOOZ ALLEN HAMILTON HOLDING CORPORATION</v>
-    <v>126.17</v>
-    <v>56.685299999999998</v>
-    <v>126</v>
-    <v>127.34</v>
-    <v>126.02</v>
+    <v>125.44</v>
+    <v>56.293900000000001</v>
+    <v>125.13</v>
+    <v>128.16</v>
+    <v>128.66999999999999</v>
     <v>130381200</v>
     <v>BAH</v>
     <v>BOOZ ALLEN HAMILTON HOLDING CORPORATION (XNYS:BAH)</v>
-    <v>979493</v>
-    <v>978442</v>
+    <v>690267</v>
+    <v>801949</v>
     <v>2008</v>
   </rv>
   <rv s="4">
@@ -2597,20 +2602,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S199"/>
+  <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K188" sqref="K188:N188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="2" max="20" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2669,7 +2674,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>18</v>
       </c>
@@ -2728,7 +2733,7 @@
         <v>2654486000</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>192</v>
       </c>
@@ -2799,7 +2804,7 @@
         <v>9.0917086165438032E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2858,7 +2863,7 @@
         <v>2654486000</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2917,7 +2922,7 @@
         <v>1251916000</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2976,7 +2981,7 @@
         <v>1251916000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>22</v>
       </c>
@@ -3035,7 +3040,7 @@
         <v>1402570000</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>58</v>
       </c>
@@ -3094,7 +3099,7 @@
         <v>52.84</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -3153,7 +3158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -3212,7 +3217,7 @@
         <v>1168152000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>26</v>
       </c>
@@ -3271,7 +3276,7 @@
         <v>314001000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>193</v>
       </c>
@@ -3348,7 +3353,7 @@
         <v>0.11829069733274163</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>27</v>
       </c>
@@ -3407,7 +3412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>194</v>
       </c>
@@ -3475,7 +3480,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -3534,7 +3539,7 @@
         <v>854151000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>29</v>
       </c>
@@ -3593,7 +3598,7 @@
         <v>234418000</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
         <v>59</v>
       </c>
@@ -3652,7 +3657,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>195</v>
       </c>
@@ -3723,7 +3728,7 @@
         <v>-6.4632702526335413</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -3782,7 +3787,7 @@
         <v>33550000</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -3841,7 +3846,7 @@
         <v>38015000</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -3900,7 +3905,7 @@
         <v>38015000</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -3959,7 +3964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -4018,7 +4023,7 @@
         <v>-4465000</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -4077,7 +4082,7 @@
         <v>200868000</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -4136,7 +4141,7 @@
         <v>39480000</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -4195,7 +4200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -4254,7 +4259,7 @@
         <v>161388000</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -4313,7 +4318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -4372,7 +4377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -4431,7 +4436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -4490,7 +4495,7 @@
         <v>161388000</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -4549,7 +4554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
         <v>44</v>
       </c>
@@ -4608,7 +4613,7 @@
         <v>161388000</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>60</v>
       </c>
@@ -4667,7 +4672,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>196</v>
       </c>
@@ -4738,7 +4743,7 @@
         <v>-3.3587150331764639</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>197</v>
       </c>
@@ -4815,7 +4820,7 @@
         <v>4.250390677128562E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -4874,7 +4879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -4933,7 +4938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -4992,7 +4997,7 @@
         <v>161388000</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -5051,7 +5056,7 @@
         <v>131032000</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -5110,7 +5115,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -5169,7 +5174,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -5228,7 +5233,7 @@
         <v>131531000</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -5287,7 +5292,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
@@ -5346,7 +5351,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
@@ -5405,7 +5410,7 @@
         <v>276265000</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -5464,7 +5469,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -5523,7 +5528,7 @@
         <v>234418000</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -5582,7 +5587,7 @@
         <v>234418000</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>61</v>
       </c>
@@ -5641,7 +5646,7 @@
         <v>83213</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>62</v>
       </c>
@@ -5700,7 +5705,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>63</v>
       </c>
@@ -5759,7 +5764,7 @@
         <v>41847000</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -5818,7 +5823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>64</v>
       </c>
@@ -5877,7 +5882,7 @@
         <v>2407756000</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
@@ -5936,7 +5941,7 @@
         <v>209640000</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>66</v>
       </c>
@@ -5995,7 +6000,7 @@
         <v>209640000</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>67</v>
       </c>
@@ -6054,7 +6059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>68</v>
       </c>
@@ -6113,7 +6118,7 @@
         <v>2099966000</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>69</v>
       </c>
@@ -6172,7 +6177,7 @@
         <v>745924000</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>70</v>
       </c>
@@ -6231,7 +6236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>71</v>
       </c>
@@ -6290,7 +6295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>72</v>
       </c>
@@ -6349,7 +6354,7 @@
         <v>1354042000</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
@@ -6408,7 +6413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>74</v>
       </c>
@@ -6467,7 +6472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>75</v>
       </c>
@@ -6526,7 +6531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>76</v>
       </c>
@@ -6585,7 +6590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>77</v>
       </c>
@@ -6644,7 +6649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>78</v>
       </c>
@@ -6703,7 +6708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>79</v>
       </c>
@@ -6762,7 +6767,7 @@
         <v>98150000</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>80</v>
       </c>
@@ -6821,7 +6826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>81</v>
       </c>
@@ -6880,7 +6885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>82</v>
       </c>
@@ -6939,7 +6944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>83</v>
       </c>
@@ -6998,7 +7003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>84</v>
       </c>
@@ -7057,7 +7062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>85</v>
       </c>
@@ -7116,7 +7121,7 @@
         <v>4358561000</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>86</v>
       </c>
@@ -7175,7 +7180,7 @@
         <v>366443000</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>87</v>
       </c>
@@ -7234,7 +7239,7 @@
         <v>366443000</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>88</v>
       </c>
@@ -7293,7 +7298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>89</v>
       </c>
@@ -7352,7 +7357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>90</v>
       </c>
@@ -7411,7 +7416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>91</v>
       </c>
@@ -7470,7 +7475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -7529,7 +7534,7 @@
         <v>3992118000</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>93</v>
       </c>
@@ -7588,7 +7593,7 @@
         <v>3001569000</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -7647,7 +7652,7 @@
         <v>2343789000</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -7706,7 +7711,7 @@
         <v>657780000</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>96</v>
       </c>
@@ -7765,7 +7770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>97</v>
       </c>
@@ -7824,7 +7829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>98</v>
       </c>
@@ -7883,7 +7888,7 @@
         <v>990549000</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>99</v>
       </c>
@@ -7942,7 +7947,7 @@
         <v>6766317000</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>100</v>
       </c>
@@ -8001,7 +8006,7 @@
         <v>1391029000</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>101</v>
       </c>
@@ -8060,7 +8065,7 @@
         <v>572355000</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>102</v>
       </c>
@@ -8119,7 +8124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>103</v>
       </c>
@@ -8178,7 +8183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>104</v>
       </c>
@@ -8237,7 +8242,7 @@
         <v>818674000</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>105</v>
       </c>
@@ -8296,7 +8301,7 @@
         <v>162531000</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>106</v>
       </c>
@@ -8355,7 +8360,7 @@
         <v>116250000</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>107</v>
       </c>
@@ -8414,7 +8419,7 @@
         <v>46281000</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>108</v>
       </c>
@@ -8473,7 +8478,7 @@
         <v>438895000</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>109</v>
       </c>
@@ -8532,7 +8537,7 @@
         <v>13635000</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>110</v>
       </c>
@@ -8591,7 +8596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>111</v>
       </c>
@@ -8650,7 +8655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>112</v>
       </c>
@@ -8709,7 +8714,7 @@
         <v>425260000</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>113</v>
       </c>
@@ -8768,7 +8773,7 @@
         <v>1992455000</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>114</v>
       </c>
@@ -8827,7 +8832,7 @@
         <v>2956806000</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>115</v>
       </c>
@@ -8886,7 +8891,7 @@
         <v>2761333000</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>116</v>
       </c>
@@ -8945,7 +8950,7 @@
         <v>195473000</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>117</v>
       </c>
@@ -9004,7 +9009,7 @@
         <v>799985000</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>118</v>
       </c>
@@ -9063,7 +9068,7 @@
         <v>654341000</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>119</v>
       </c>
@@ -9122,7 +9127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -9181,7 +9186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -9240,7 +9245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>110</v>
       </c>
@@ -9299,7 +9304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>120</v>
       </c>
@@ -9358,7 +9363,7 @@
         <v>145644000</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>121</v>
       </c>
@@ -9417,7 +9422,7 @@
         <v>3756791000</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>122</v>
       </c>
@@ -9476,7 +9481,7 @@
         <v>5749246000</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>123</v>
       </c>
@@ -9535,7 +9540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>124</v>
       </c>
@@ -9594,7 +9599,7 @@
         <v>806905000</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>125</v>
       </c>
@@ -9653,7 +9658,7 @@
         <v>1665000</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>126</v>
       </c>
@@ -9712,7 +9717,7 @@
         <v>805240000</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>127</v>
       </c>
@@ -9771,7 +9776,7 @@
         <v>1972886000</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>128</v>
       </c>
@@ -9830,7 +9835,7 @@
         <v>2150361000</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>129</v>
       </c>
@@ -9889,7 +9894,7 @@
         <v>32691000</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>130</v>
       </c>
@@ -9948,7 +9953,7 @@
         <v>1017071000</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>131</v>
       </c>
@@ -10007,7 +10012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>132</v>
       </c>
@@ -10066,7 +10071,7 @@
         <v>1017071000</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>133</v>
       </c>
@@ -10125,7 +10130,7 @@
         <v>6766317000</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="28" t="s">
         <v>134</v>
       </c>
@@ -10184,7 +10189,7 @@
         <v>131116000</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
         <v>198</v>
       </c>
@@ -10258,7 +10263,7 @@
         <v>-3.9654203193606463E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>135</v>
       </c>
@@ -10317,7 +10322,7 @@
         <v>241754000</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>136</v>
       </c>
@@ -10376,7 +10381,7 @@
         <v>2667943000</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>137</v>
       </c>
@@ -10435,7 +10440,7 @@
         <v>262.32</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>138</v>
       </c>
@@ -10494,7 +10499,7 @@
         <v>-52.71</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>139</v>
       </c>
@@ -10553,7 +10558,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>140</v>
       </c>
@@ -10612,7 +10617,7 @@
         <v>-17.82</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>141</v>
       </c>
@@ -10671,7 +10676,7 @@
         <v>31900</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>24</v>
       </c>
@@ -10730,7 +10735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>142</v>
       </c>
@@ -10789,7 +10794,7 @@
         <v>161388000</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>143</v>
       </c>
@@ -10848,7 +10853,7 @@
         <v>41847000</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>144</v>
       </c>
@@ -10907,7 +10912,7 @@
         <v>33530000</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="28" t="s">
         <v>145</v>
       </c>
@@ -10966,7 +10971,7 @@
         <v>17685000</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>199</v>
       </c>
@@ -11043,7 +11048,7 @@
         <v>6.6623067516649176E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>146</v>
       </c>
@@ -11102,7 +11107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>147</v>
       </c>
@@ -11161,7 +11166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -11220,7 +11225,7 @@
         <v>15845000</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -11279,7 +11284,7 @@
         <v>-308297000</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>150</v>
       </c>
@@ -11338,7 +11343,7 @@
         <v>-325363000</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>151</v>
       </c>
@@ -11397,7 +11402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>152</v>
       </c>
@@ -11456,7 +11461,7 @@
         <v>-10217000</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>153</v>
       </c>
@@ -11515,7 +11520,7 @@
         <v>74389000</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>154</v>
       </c>
@@ -11574,7 +11579,7 @@
         <v>-47106000</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>155</v>
       </c>
@@ -11633,7 +11638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>156</v>
       </c>
@@ -11692,7 +11697,7 @@
         <v>-71532000</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>157</v>
       </c>
@@ -11751,7 +11756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>158</v>
       </c>
@@ -11810,7 +11815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>159</v>
       </c>
@@ -11869,7 +11874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>160</v>
       </c>
@@ -11928,7 +11933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>161</v>
       </c>
@@ -11987,7 +11992,7 @@
         <v>-10488000</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>162</v>
       </c>
@@ -12046,7 +12051,7 @@
         <v>-10488000</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>163</v>
       </c>
@@ -12105,7 +12110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>164</v>
       </c>
@@ -12164,7 +12169,7 @@
         <v>-4160000</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>165</v>
       </c>
@@ -12223,7 +12228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>166</v>
       </c>
@@ -12282,7 +12287,7 @@
         <v>-4160000</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>167</v>
       </c>
@@ -12341,7 +12346,7 @@
         <v>-406000</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>168</v>
       </c>
@@ -12400,7 +12405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>169</v>
       </c>
@@ -12459,7 +12464,7 @@
         <v>-406000</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>170</v>
       </c>
@@ -12518,7 +12523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>171</v>
       </c>
@@ -12577,7 +12582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>155</v>
       </c>
@@ -12636,7 +12641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>172</v>
       </c>
@@ -12695,7 +12700,7 @@
         <v>-15054000</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>173</v>
       </c>
@@ -12754,7 +12759,7 @@
         <v>-63034000</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>174</v>
       </c>
@@ -12813,7 +12818,7 @@
         <v>64687000</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>175</v>
       </c>
@@ -12872,7 +12877,7 @@
         <v>75000000</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>176</v>
       </c>
@@ -12931,7 +12936,7 @@
         <v>-10313000</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>177</v>
       </c>
@@ -12990,7 +12995,7 @@
         <v>-121465000</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>178</v>
       </c>
@@ -13049,7 +13054,7 @@
         <v>6925000</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>179</v>
       </c>
@@ -13108,7 +13113,7 @@
         <v>-128390000</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>180</v>
       </c>
@@ -13167,7 +13172,7 @@
         <v>11176000</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>155</v>
       </c>
@@ -13226,7 +13231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>181</v>
       </c>
@@ -13285,7 +13290,7 @@
         <v>-108636000</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>182</v>
       </c>
@@ -13344,7 +13349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>183</v>
       </c>
@@ -13403,7 +13408,7 @@
         <v>-195222000</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>54</v>
       </c>
@@ -13462,7 +13467,7 @@
         <v>276265000</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>55</v>
       </c>
@@ -13521,7 +13526,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>184</v>
       </c>
@@ -13580,7 +13585,7 @@
         <v>406000</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>185</v>
       </c>
@@ -13639,7 +13644,7 @@
         <v>-82020000</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="28" t="s">
         <v>186</v>
       </c>
@@ -13698,7 +13703,7 @@
         <v>-51476734</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="21" t="s">
         <v>200</v>
       </c>
@@ -13769,7 +13774,7 @@
         <v>-1.2423392493974088</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="24" t="s">
         <v>201</v>
       </c>
@@ -13846,7 +13851,7 @@
         <v>-1.9392354678080804E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>187</v>
       </c>
@@ -13905,7 +13910,7 @@
         <v>-17333000</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>188</v>
       </c>
@@ -13964,7 +13969,7 @@
         <v>-0.63</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>189</v>
       </c>
@@ -14023,7 +14028,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>190</v>
       </c>
@@ -14082,12 +14087,9 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="7"/>
     </row>
-    <row r="197" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="198" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="ROIC AI" display="ROIC AI" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -14104,7 +14106,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14112,52 +14114,52 @@
     <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="120" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="e" vm="1">
+    <row r="1" spans="1:18" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="114" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-    </row>
-    <row r="2" spans="1:18" s="120" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+    </row>
+    <row r="2" spans="1:18" s="115" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>16602742008</v>
+        <v>16709650000</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>202</v>
@@ -14177,135 +14179,135 @@
         <v>204</v>
       </c>
       <c r="G3" s="39">
-        <f>AVERAGE(Financials!K129:O129)</f>
-        <v>-1.3030769710580837E-2</v>
+        <f>AVERAGE(Financials!I129:N129)</f>
+        <v>-2.0261210541536973E-2</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>205</v>
       </c>
       <c r="I3" s="40">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>16710964257.826094</v>
+        <v>16430427208.005894</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>206</v>
       </c>
       <c r="K3" s="42">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>1.4447071446657632E-2</v>
+        <v>1.4354639385026019E-2</v>
       </c>
       <c r="L3" s="43" t="s">
         <v>207</v>
       </c>
       <c r="M3" s="44"/>
-      <c r="N3" s="45" t="s">
+      <c r="N3" s="116" t="s">
         <v>208</v>
       </c>
-      <c r="O3" s="46"/>
+      <c r="O3" s="117"/>
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
       <c r="R3" s="44"/>
     </row>
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+      <c r="A4" s="45">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-2909697000</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="47">
         <f>Financials!O17*0.01</f>
         <v>4.9100000000000005E-2</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="47">
         <f>SUM(C13:E13)/3</f>
         <v>-0.12984466484806681</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="49">
         <f>A5*(1+(5*G3))</f>
-        <v>121886363.04105408</v>
-      </c>
-      <c r="H4" s="50" t="s">
+        <v>117172795.28070879</v>
+      </c>
+      <c r="H4" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="50">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>14616958637.691265</v>
-      </c>
-      <c r="J4" s="50" t="s">
+        <v>14369256742.706541</v>
+      </c>
+      <c r="J4" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="K4" s="53" cm="1">
+      <c r="K4" s="51" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.0634999999999999E-2</v>
-      </c>
-      <c r="L4" s="54" t="s">
+        <v>2.4215E-2</v>
+      </c>
+      <c r="L4" s="52" t="s">
         <v>214</v>
       </c>
       <c r="M4" s="44"/>
-      <c r="N4" s="55" t="s">
+      <c r="N4" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="O4" s="56"/>
+      <c r="O4" s="119"/>
       <c r="P4" s="44"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="44"/>
     </row>
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" cm="1">
+      <c r="A5" s="45" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>130381200</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="47">
         <f>F14</f>
         <v>6.2738367658276131E-2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="47">
         <f>SUM(C16:E16)/3</f>
         <v>9.102861622345626E-2</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="49">
         <f>Financials!O56</f>
         <v>209640000</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>11707261637.691265</v>
-      </c>
-      <c r="J5" s="50" t="s">
+        <v>11459559742.706541</v>
+      </c>
+      <c r="J5" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="K5" s="58" cm="1">
+      <c r="K5" s="54" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>127.34</v>
-      </c>
-      <c r="L5" s="59" t="s">
+        <v>128.16</v>
+      </c>
+      <c r="L5" s="55" t="s">
         <v>221</v>
       </c>
       <c r="M5" s="44"/>
-      <c r="N5" s="60" t="s">
+      <c r="N5" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="57">
         <f>Financials!O20</f>
         <v>134080000</v>
       </c>
@@ -14314,53 +14316,53 @@
       <c r="R5" s="44"/>
     </row>
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62">
+      <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>1.5830226933638445</v>
-      </c>
-      <c r="B6" s="48" t="s">
+        <v>1.5932160564454614</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="47">
         <f>F17</f>
         <v>7.7517162471395881E-2</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="47">
         <f>Financials!O33/Financials!O126</f>
         <v>0.28964841195944041</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="49">
         <f>Financials!O96+Financials!O105</f>
         <v>3119337000</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="51">
         <f>N25</f>
-        <v>8.6336975185017886E-2</v>
-      </c>
-      <c r="J6" s="50" t="s">
+        <v>8.738425739171031E-2</v>
+      </c>
+      <c r="J6" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="59">
         <f>I5/G4</f>
-        <v>96.050627367952515</v>
-      </c>
-      <c r="L6" s="64" t="s">
+        <v>97.800515172938191</v>
+      </c>
+      <c r="L6" s="60" t="s">
         <v>227</v>
       </c>
       <c r="M6" s="44"/>
-      <c r="N6" s="60" t="s">
+      <c r="N6" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="O6" s="61">
+      <c r="O6" s="57">
         <f>Financials!O96</f>
         <v>162531000</v>
       </c>
@@ -14369,52 +14371,52 @@
       <c r="R6" s="44"/>
     </row>
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65">
+      <c r="A7" s="61">
         <f>O20/F12</f>
-        <v>25.232130711246199</v>
-      </c>
-      <c r="B7" s="66" t="s">
+        <v>25.394604863221886</v>
+      </c>
+      <c r="B7" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="63">
         <f>F15/A3</f>
-        <v>4.8967815051770211E-2</v>
-      </c>
-      <c r="D7" s="66" t="s">
+        <v>4.8654519992938211E-2</v>
+      </c>
+      <c r="D7" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="64">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>8.595700665891759E-2</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="65">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>3.0669805746108185</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="67">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>-0.24571519264997244</v>
-      </c>
-      <c r="L7" s="74" t="s">
+        <v>-0.23688736600391547</v>
+      </c>
+      <c r="L7" s="70" t="s">
         <v>233</v>
       </c>
       <c r="M7" s="44"/>
-      <c r="N7" s="60" t="s">
+      <c r="N7" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="O7" s="61">
+      <c r="O7" s="57">
         <f>Financials!O105</f>
         <v>2956806000</v>
       </c>
@@ -14423,7 +14425,7 @@
       <c r="R7" s="44"/>
     </row>
     <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="75"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -14432,14 +14434,14 @@
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
       <c r="M8" s="44"/>
-      <c r="N8" s="77" t="s">
+      <c r="N8" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="O8" s="78">
+      <c r="O8" s="74">
         <f>O5/(O6+O7)</f>
         <v>4.2983492966614377E-2</v>
       </c>
@@ -14448,41 +14450,41 @@
       <c r="R8" s="44"/>
     </row>
     <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="79"/>
-      <c r="B9" s="80">
+      <c r="A9" s="75"/>
+      <c r="B9" s="76">
         <v>2020</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="76">
         <v>2021</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="76">
         <v>2022</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="77">
         <v>2023</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="78">
         <v>2024</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="79">
         <v>2025</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="79">
         <v>2026</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="79">
         <v>2027</v>
       </c>
-      <c r="J9" s="84">
+      <c r="J9" s="80">
         <v>2028</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="60" t="s">
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="O9" s="61">
+      <c r="O9" s="57">
         <f>Financials!O25</f>
         <v>94725000</v>
       </c>
@@ -14491,44 +14493,44 @@
       <c r="R9" s="44"/>
     </row>
     <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="82">
         <v>7463841000</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="82">
         <v>7858938000</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="82">
         <v>8363700000</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="83">
         <v>9258911000</v>
       </c>
-      <c r="F10" s="86">
+      <c r="F10" s="82">
         <v>10488000000</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="82">
         <v>11236000000</v>
       </c>
-      <c r="H10" s="86">
+      <c r="H10" s="82">
         <v>11673000000</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I10" s="82">
         <v>12000000000</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="83">
         <v>12300000000</v>
       </c>
-      <c r="K10" s="88" t="s">
+      <c r="K10" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="L10" s="76"/>
-      <c r="N10" s="60" t="s">
+      <c r="L10" s="72"/>
+      <c r="N10" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="O10" s="61">
+      <c r="O10" s="57">
         <f>Financials!O24</f>
         <v>389235000</v>
       </c>
@@ -14537,50 +14539,50 @@
       <c r="R10" s="44"/>
     </row>
     <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90">
+      <c r="A11" s="85"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>5.2934809302609631E-2</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="86">
         <f t="shared" si="0"/>
         <v>6.4227762071669137E-2</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="86">
         <f t="shared" si="0"/>
         <v>0.10703528342719126</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="87">
         <f t="shared" si="0"/>
         <v>0.1327466048653021</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="86">
         <f t="shared" si="0"/>
         <v>7.1319603356216676E-2</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="86">
         <f t="shared" si="0"/>
         <v>3.8892844428622286E-2</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="86">
         <f t="shared" si="0"/>
         <v>2.8013364173734345E-2</v>
       </c>
-      <c r="J11" s="92">
+      <c r="J11" s="88">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="K11" s="92">
+      <c r="K11" s="88">
         <f>AVERAGE(F11:J11)</f>
         <v>5.9194483364775063E-2</v>
       </c>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="60" t="s">
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="O11" s="93">
+      <c r="O11" s="89">
         <f>O9/O10</f>
         <v>0.24336197926702377</v>
       </c>
@@ -14589,45 +14591,45 @@
       <c r="R11" s="44"/>
     </row>
     <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="82">
         <v>482603000</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="82">
         <v>608958000</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="82">
         <v>466414000</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="82">
         <v>271791000</v>
       </c>
-      <c r="F12" s="94">
+      <c r="F12" s="90">
         <v>658000000</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="82">
         <v>728000000</v>
       </c>
-      <c r="H12" s="86">
+      <c r="H12" s="82">
         <v>790000000</v>
       </c>
-      <c r="I12" s="86">
+      <c r="I12" s="82">
         <v>820000000</v>
       </c>
-      <c r="J12" s="87">
+      <c r="J12" s="83">
         <v>850000000</v>
       </c>
-      <c r="K12" s="95" t="s">
+      <c r="K12" s="91" t="s">
         <v>240</v>
       </c>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="60" t="s">
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="O12" s="93">
+      <c r="O12" s="89">
         <f>O8*(1-O11)</f>
         <v>3.252294504244891E-2</v>
       </c>
@@ -14636,148 +14638,148 @@
       <c r="R12" s="44"/>
     </row>
     <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="89"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90">
+      <c r="A13" s="85"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.26181975661154189</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="86">
         <f t="shared" si="1"/>
         <v>-0.23407854072037804</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="86">
         <f t="shared" si="1"/>
         <v>-0.41727521043536431</v>
       </c>
-      <c r="F13" s="91">
+      <c r="F13" s="87">
         <f t="shared" si="1"/>
         <v>1.4209778837415512</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="86">
         <f t="shared" si="1"/>
         <v>0.1063829787234043</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="86">
         <f t="shared" si="1"/>
         <v>8.5164835164835084E-2</v>
       </c>
-      <c r="I13" s="90">
+      <c r="I13" s="86">
         <f t="shared" si="1"/>
         <v>3.7974683544303778E-2</v>
       </c>
-      <c r="J13" s="92">
+      <c r="J13" s="88">
         <f t="shared" si="1"/>
         <v>3.6585365853658569E-2</v>
       </c>
-      <c r="K13" s="92">
-        <f>AVERAGE(F13:J13)</f>
-        <v>0.33741714940555056</v>
-      </c>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="55" t="s">
+      <c r="K13" s="88">
+        <f>AVERAGE(G13:J13)</f>
+        <v>6.6526965821550432E-2</v>
+      </c>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="118" t="s">
         <v>242</v>
       </c>
-      <c r="O13" s="56"/>
+      <c r="O13" s="119"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
       <c r="R13" s="44"/>
     </row>
     <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="97">
+      <c r="B14" s="93">
         <f>B12/B10</f>
         <v>6.4658799671643591E-2</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="93">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>7.7486042007202494E-2</v>
       </c>
-      <c r="D14" s="97">
+      <c r="D14" s="93">
         <f t="shared" si="2"/>
         <v>5.5766466994272873E-2</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="93">
         <f t="shared" si="2"/>
         <v>2.9354532082660693E-2</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="94">
         <f t="shared" si="2"/>
         <v>6.2738367658276131E-2</v>
       </c>
-      <c r="G14" s="97">
+      <c r="G14" s="93">
         <f t="shared" si="2"/>
         <v>6.4791740833036668E-2</v>
       </c>
-      <c r="H14" s="97">
+      <c r="H14" s="93">
         <f t="shared" si="2"/>
         <v>6.7677546474770839E-2</v>
       </c>
-      <c r="I14" s="97">
+      <c r="I14" s="93">
         <f t="shared" si="2"/>
         <v>6.8333333333333329E-2</v>
       </c>
-      <c r="J14" s="99">
+      <c r="J14" s="95">
         <f t="shared" si="2"/>
         <v>6.910569105691057E-2</v>
       </c>
-      <c r="K14" s="99"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="60" t="s">
+      <c r="K14" s="95"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="O14" s="93">
+      <c r="O14" s="89">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6280000000000002E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
     </row>
     <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="86">
+      <c r="B15" s="82">
         <v>498457077</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="82">
         <v>683243414</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="82">
         <v>710784584</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="82">
         <v>612738777</v>
       </c>
-      <c r="F15" s="94">
+      <c r="F15" s="90">
         <v>813000000</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="82">
         <v>880000000</v>
       </c>
-      <c r="H15" s="86">
+      <c r="H15" s="82">
         <v>937000000</v>
       </c>
-      <c r="I15" s="86">
+      <c r="I15" s="82">
         <v>955000000</v>
       </c>
-      <c r="J15" s="87">
+      <c r="J15" s="83">
         <v>1000000000</v>
       </c>
-      <c r="K15" s="95" t="s">
+      <c r="K15" s="91" t="s">
         <v>245</v>
       </c>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="60" t="s">
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="O15" s="100">
+      <c r="O15" s="96">
         <f>1.33</f>
         <v>1.33</v>
       </c>
@@ -14786,50 +14788,50 @@
       <c r="R15" s="44"/>
     </row>
     <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="101"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90">
+      <c r="A16" s="97"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.3707166484868667</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="86">
         <f t="shared" si="3"/>
         <v>4.0309455511268188E-2</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="86">
         <f t="shared" si="3"/>
         <v>-0.1379402553277661</v>
       </c>
-      <c r="F16" s="91">
+      <c r="F16" s="87">
         <f t="shared" si="3"/>
         <v>0.32682968749013908</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="86">
         <f t="shared" si="3"/>
         <v>8.2410824108241076E-2</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="86">
         <f t="shared" si="3"/>
         <v>6.4772727272727204E-2</v>
       </c>
-      <c r="I16" s="90">
+      <c r="I16" s="86">
         <f t="shared" si="3"/>
         <v>1.9210245464247544E-2</v>
       </c>
-      <c r="J16" s="92">
+      <c r="J16" s="88">
         <f t="shared" si="3"/>
         <v>4.7120418848167533E-2</v>
       </c>
-      <c r="K16" s="92">
+      <c r="K16" s="88">
         <f>AVERAGE(F16:J16)</f>
         <v>0.10806878063670448</v>
       </c>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="60" t="s">
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="O16" s="93">
+      <c r="O16" s="89">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="44"/>
@@ -14837,111 +14839,111 @@
       <c r="R16" s="44"/>
     </row>
     <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="B17" s="97">
+      <c r="B17" s="93">
         <f>B15/B10</f>
         <v>6.6782917401375513E-2</v>
       </c>
-      <c r="C17" s="97">
+      <c r="C17" s="93">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>8.6938389639923355E-2</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D17" s="93">
         <f t="shared" si="4"/>
         <v>8.4984466683405674E-2</v>
       </c>
-      <c r="E17" s="99">
+      <c r="E17" s="95">
         <f t="shared" si="4"/>
         <v>6.6178277013355033E-2</v>
       </c>
-      <c r="F17" s="97">
+      <c r="F17" s="93">
         <f t="shared" si="4"/>
         <v>7.7517162471395881E-2</v>
       </c>
-      <c r="G17" s="97">
+      <c r="G17" s="93">
         <f t="shared" si="4"/>
         <v>7.8319686721253112E-2</v>
       </c>
-      <c r="H17" s="97">
+      <c r="H17" s="93">
         <f t="shared" si="4"/>
         <v>8.0270710185899083E-2</v>
       </c>
-      <c r="I17" s="97">
+      <c r="I17" s="93">
         <f t="shared" si="4"/>
         <v>7.9583333333333339E-2</v>
       </c>
-      <c r="J17" s="99">
+      <c r="J17" s="95">
         <f t="shared" si="4"/>
         <v>8.1300813008130079E-2</v>
       </c>
-      <c r="K17" s="99"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="102" t="s">
+      <c r="K17" s="95"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="98" t="s">
         <v>242</v>
       </c>
-      <c r="O17" s="103">
+      <c r="O17" s="99">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6447600000000008E-2</v>
+        <v>9.762570000000001E-2</v>
       </c>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="44"/>
     </row>
     <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="B18" s="105">
+      <c r="B18" s="101">
         <v>0.14930936814570456</v>
       </c>
-      <c r="C18" s="105">
+      <c r="C18" s="101">
         <v>0.15104046534425095</v>
       </c>
-      <c r="D18" s="105">
+      <c r="D18" s="101">
         <v>0.12394146973720738</v>
       </c>
-      <c r="E18" s="105">
+      <c r="E18" s="101">
         <v>8.2677587849994419E-2</v>
       </c>
-      <c r="F18" s="106"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="55" t="s">
+      <c r="F18" s="102"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="118" t="s">
         <v>248</v>
       </c>
-      <c r="O18" s="56"/>
+      <c r="O18" s="119"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
     </row>
     <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76" t="s">
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="60" t="s">
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="O19" s="109">
+      <c r="O19" s="105">
         <f>O6+O7</f>
         <v>3119337000</v>
       </c>
@@ -14950,252 +14952,252 @@
       <c r="R19" s="44"/>
     </row>
     <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="60" t="s">
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="O20" s="109">
+      <c r="O20" s="105">
         <f>A3</f>
-        <v>16602742008</v>
+        <v>16709650000</v>
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="111" t="str" cm="1">
+      <c r="A21" s="120" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112" cm="1">
+      <c r="B21" s="120"/>
+      <c r="C21" s="121" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2008</v>
       </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="60" t="s">
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="O21" s="109">
+      <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>19722079008</v>
+        <v>19828987000</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
       <c r="R21" s="44"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="111" t="str" cm="1">
+      <c r="A22" s="109" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Booz Allen Hamilton Holding Corporation is a holding company. The Company provides management and technology consulting, analytics, engineering, digital solutions, mission operations, and cyber services to United States (US) and international governments, major corporations, and not-for-profit organizations. Its analytics service offering focuses on providing solutions the areas of artificial intelligence (AI), such as machine learning (ML), deep learning, data science, such as data engineering and predictive modeling, automation and decision analytics, and emerging areas, such as quantum computing. Its consulting service offering focuses on the talent and expertise needed to solve client problems and develop mission-oriented solutions for specific domains, business strategies, human capital, and operations through new approaches. Its engineering solutions deliver engineering services and solutions to define, develop, implement, sustain, and modernize complex physical systems.</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="77" t="s">
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="73" t="s">
         <v>251</v>
       </c>
-      <c r="O22" s="113">
+      <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>0.1581647147207291</v>
+        <v>0.15731196959279867</v>
       </c>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="102" t="s">
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="O23" s="114">
+      <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.84183528527927087</v>
+        <v>0.84268803040720131</v>
       </c>
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
       <c r="R23" s="44"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="115" t="s">
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="110" t="s">
         <v>253</v>
       </c>
-      <c r="O24" s="116"/>
+      <c r="O24" s="111"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="44"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="111"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="117">
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.6336975185017886E-2</v>
-      </c>
-      <c r="O25" s="118"/>
+        <v>8.738425739171031E-2</v>
+      </c>
+      <c r="O25" s="113"/>
       <c r="P25" s="44"/>
       <c r="Q25" s="44"/>
       <c r="R25" s="44"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
       <c r="O26" s="44"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="44"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="111"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
       <c r="O27" s="44"/>
       <c r="P27" s="44"/>
       <c r="Q27" s="44"/>
       <c r="R27" s="44"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="111"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
       <c r="O28" s="44"/>
       <c r="P28" s="44"/>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
       <c r="O29" s="44"/>
       <c r="P29" s="44"/>
       <c r="Q29" s="44"/>
       <c r="R29" s="44"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
       <c r="O30" s="44"/>
       <c r="P30" s="44"/>
       <c r="Q30" s="44"/>
@@ -15242,582 +15244,582 @@
       <c r="R32" s="44"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
       <c r="Q33" s="44"/>
       <c r="R33" s="44"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
       <c r="Q34" s="44"/>
       <c r="R34" s="44"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="76"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
       <c r="Q35" s="44"/>
       <c r="R35" s="44"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="76"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
       <c r="Q36" s="44"/>
       <c r="R36" s="44"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="76"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
       <c r="Q37" s="44"/>
       <c r="R37" s="44"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
       <c r="Q38" s="44"/>
       <c r="R38" s="44"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="76"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
       <c r="Q39" s="44"/>
       <c r="R39" s="44"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="76"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="76"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
       <c r="Q40" s="44"/>
       <c r="R40" s="44"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="76"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="76"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
       <c r="Q41" s="44"/>
       <c r="R41" s="44"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="76"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
       <c r="Q42" s="44"/>
       <c r="R42" s="44"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="76"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="76"/>
-      <c r="P43" s="76"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
       <c r="Q43" s="44"/>
       <c r="R43" s="44"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="76"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
+      <c r="A44" s="72"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
       <c r="Q44" s="44"/>
       <c r="R44" s="44"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="76"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="72"/>
       <c r="Q45" s="44"/>
       <c r="R45" s="44"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="76"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="76"/>
-      <c r="P46" s="76"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
       <c r="Q46" s="44"/>
       <c r="R46" s="44"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="76"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="76"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
       <c r="Q47" s="44"/>
       <c r="R47" s="44"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="76"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76"/>
-      <c r="P48" s="76"/>
+      <c r="A48" s="72"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
       <c r="Q48" s="44"/>
       <c r="R48" s="44"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="76"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
+      <c r="A49" s="72"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="72"/>
       <c r="Q49" s="44"/>
       <c r="R49" s="44"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="76"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
       <c r="Q50" s="44"/>
       <c r="R50" s="44"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="76"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="76"/>
-      <c r="N51" s="76"/>
-      <c r="O51" s="76"/>
-      <c r="P51" s="76"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
       <c r="Q51" s="44"/>
       <c r="R51" s="44"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="76"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
       <c r="Q52" s="44"/>
       <c r="R52" s="44"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="76"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
       <c r="Q53" s="44"/>
       <c r="R53" s="44"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="76"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="76"/>
-      <c r="P54" s="76"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
       <c r="Q54" s="44"/>
       <c r="R54" s="44"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="76"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="76"/>
-      <c r="N55" s="76"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="76"/>
+      <c r="A55" s="72"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
       <c r="Q55" s="44"/>
       <c r="R55" s="44"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="76"/>
-      <c r="B56" s="76"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="76"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="76"/>
+      <c r="A56" s="72"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="72"/>
+      <c r="L56" s="72"/>
+      <c r="M56" s="72"/>
+      <c r="N56" s="72"/>
+      <c r="O56" s="72"/>
+      <c r="P56" s="72"/>
       <c r="Q56" s="44"/>
       <c r="R56" s="44"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="76"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
+      <c r="A57" s="72"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="72"/>
+      <c r="N57" s="72"/>
+      <c r="O57" s="72"/>
+      <c r="P57" s="72"/>
       <c r="Q57" s="44"/>
       <c r="R57" s="44"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="76"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="76"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="76"/>
-      <c r="N58" s="76"/>
-      <c r="O58" s="76"/>
-      <c r="P58" s="76"/>
+      <c r="A58" s="72"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="72"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="72"/>
+      <c r="N58" s="72"/>
+      <c r="O58" s="72"/>
+      <c r="P58" s="72"/>
       <c r="Q58" s="44"/>
       <c r="R58" s="44"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="76"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="76"/>
-      <c r="N59" s="76"/>
-      <c r="O59" s="76"/>
-      <c r="P59" s="76"/>
+      <c r="A59" s="72"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="72"/>
+      <c r="O59" s="72"/>
+      <c r="P59" s="72"/>
       <c r="Q59" s="44"/>
       <c r="R59" s="44"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="76"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
+      <c r="A60" s="72"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="72"/>
+      <c r="N60" s="72"/>
+      <c r="O60" s="72"/>
+      <c r="P60" s="72"/>
       <c r="Q60" s="44"/>
       <c r="R60" s="44"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="76"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="76"/>
-      <c r="N61" s="76"/>
-      <c r="O61" s="76"/>
-      <c r="P61" s="76"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="72"/>
+      <c r="N61" s="72"/>
+      <c r="O61" s="72"/>
+      <c r="P61" s="72"/>
       <c r="Q61" s="44"/>
       <c r="R61" s="44"/>
     </row>
